--- a/EXCEL Output/Assignment8.xlsx
+++ b/EXCEL Output/Assignment8.xlsx
@@ -48,8 +48,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -127,41 +133,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1" headerRowCount="1">
-  <autoFilter ref="A1:C1"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Measure Name"/>
-    <tableColumn id="2" name="Measure Expression"/>
-    <tableColumn id="3" name="Measure Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:D5" headerRowCount="1">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:F6" headerRowCount="1">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Relationships" displayName="Relationships" ref="A1:G1" headerRowCount="1">
-  <autoFilter ref="A1:G1"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="From Table"/>
-    <tableColumn id="2" name="From Column"/>
-    <tableColumn id="3" name="To Table"/>
-    <tableColumn id="4" name="To Column"/>
-    <tableColumn id="5" name="State"/>
-    <tableColumn id="6" name="Direction"/>
-    <tableColumn id="7" name="Cardinality"/>
+    <tableColumn id="5" name="Table Query"/>
+    <tableColumn id="6" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -451,41 +431,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40.8" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Measure Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Measure Expression</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Measure Description</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No measures present in this file</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -495,113 +465,243 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Table No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Table Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Table Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Table Source</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Table Query</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Modification</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GDP (2001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Excel.Workbook</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP (2001-2010).xlsx"</t>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Indian Administrative Region</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Csv.Document</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Indian Administrative Region.csv"),[Delimiter="	"</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(Source,{{"Column1", type text}, {"Column2", type text}}),
+    #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"Nominal GDP(INR, ?)", type text}, {"Zonal councils", type text}}),
+    #"Renamed Columns" = Table.RenameColumns(#"Changed Type1",{{"Zonal councils", "Zone"}, {"Nominal GDP(INR, ?)", "Nominal GDP"}}),
+    #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns","?","",Replacer.ReplaceText,{"Nominal GDP"}),
+    #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value"," lakh crore","",Replacer.ReplaceText,{"Nominal GDP"}),
+    #"Changed Type2" = Table.TransformColumnTypes(#"Replaced Value1",{{"Nominal GDP", Currency.Type}})
+in
+    #"Changed Type2"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate (2002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>GDP (2001</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP (2001-2010).xlsx"</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GDP20012010_Table,{{"State/union territory", type text}, {"2001", type any}, {"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}}),
+    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Changed Type", {"State/union territory"}, "Attribute", "Value"),
+    #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP (2011-2014)"}),
+    #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
+    #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "GDP"}}),
+    #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"GDP", Currency.Type}}),
+    #"Replaced Errors" = Table.ReplaceErrorValues(#"Changed Type2", {{"GDP", 0}}),
+    #"Merged Queries" = Table.NestedJoin(#"Replaced Errors", {"State/union territory", "Year"}, #"GDP Growth Rate (2002-2014)", {"State/union territory", "Year"}, "GDP Growth Rate (2002-2014)", JoinKind.LeftOuter),
+    #"Expanded GDP Growth Rate (2002-2014)" = Table.ExpandTableColumn(#"Merged Queries", "GDP Growth Rate (2002-2014)", {"State/union territory", "Year", "Growth Rate(%)"}, {"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year", "GDP Growth Rate (2002-2014).Growth Rate(%)"}),
+    #"Removed Columns" = Table.RemoveColumns(#"Expanded GDP Growth Rate (2002-2014)",{"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year"}),
+    #"Renamed Columns2" = Table.RenameColumns(#"Removed Columns",{{"GDP Growth Rate (2002-2014).Growth Rate(%)", "Growth Rate(%)"}, {"State/union territory", "State"}}),
+    #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns2",null,0,Replacer.ReplaceValue,{"Growth Rate(%)"})
+in
+    #"Replaced Value"</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate (2011</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate (2002</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP Growth Rate (2011-2014).xlsx"</t>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP (2001-2010).xlsx"</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GrowthRate20022010_Table,{{"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}, {"State/union territory", type text}}),
+    #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2002"}),
+    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors", {"State/union territory"}, "Attribute", "Value"),
+    #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP Growth Rate (2011-2014)"}),
+    #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
+    #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "Growth Rate(%)"}}),
+    #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"Growth Rate(%)", Percentage.Type}})
+in
+    #"Changed Type2"</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate (2011</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Excel.Workbook</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP Growth Rate (2011-2014).xlsx"</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GrowthRate20112014_Table,{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}}),
+    #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2011"}),
+    #"Removed Errors1" = Table.RemoveRowsWithErrors(#"Removed Errors", {"2013"}),
+    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors1", {"State/union territory"}, "Attribute", "Value")
+in
+    #"Unpivoted Other Columns"</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>GDP (2011</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP (2011-2014).xlsx"</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GDP20112014_Sheet,{{"Column1", type text}, {"Column2", type any}, {"Column3", type any}, {"Column4", type any}, {"Column5", type any}, {"Column6", type any}}),
+    #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}, {"Column6", type any}}),
+    #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"Column6"}),
+    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Columns", {"State/union territory"}, "Attribute", "Value")
+in
+    #"Unpivoted Other Columns"</t>
         </is>
       </c>
     </row>
@@ -614,60 +714,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="46.8" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>From Table</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>From Column</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>To Table</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>To Column</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Direction</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Cardinality</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No relationships present in this file</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/EXCEL Output/Assignment8.xlsx
+++ b/EXCEL Output/Assignment8.xlsx
@@ -539,15 +539,14 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(Source,{{"Column1", type text}, {"Column2", type text}}),
-    #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"Nominal GDP(INR, ?)", type text}, {"Zonal councils", type text}}),
-    #"Renamed Columns" = Table.RenameColumns(#"Changed Type1",{{"Zonal councils", "Zone"}, {"Nominal GDP(INR, ?)", "Nominal GDP"}}),
-    #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns","?","",Replacer.ReplaceText,{"Nominal GDP"}),
-    #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value"," lakh crore","",Replacer.ReplaceText,{"Nominal GDP"}),
-    #"Changed Type2" = Table.TransformColumnTypes(#"Replaced Value1",{{"Nominal GDP", Currency.Type}})
-in
-    #"Changed Type2"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(Source,{{"Column1", type text}, {"Column2", type text}}),
+2. #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
+3. #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"Nominal GDP(INR, ?)", type text}, {"Zonal councils", type text}}),
+4. #"Renamed Columns" = Table.RenameColumns(#"Changed Type1",{{"Zonal councils", "Zone"}, {"Nominal GDP(INR, ?)", "Nominal GDP"}}),
+5. #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns","?","",Replacer.ReplaceText,{"Nominal GDP"}),
+6. #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value"," lakh crore","",Replacer.ReplaceText,{"Nominal GDP"}),
+7. #"Changed Type2" = Table.TransformColumnTypes(#"Replaced Value1",{{"Nominal GDP", Currency.Type}})
+</t>
         </is>
       </c>
     </row>
@@ -577,21 +576,20 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GDP20012010_Table,{{"State/union territory", type text}, {"2001", type any}, {"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}}),
-    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Changed Type", {"State/union territory"}, "Attribute", "Value"),
-    #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP (2011-2014)"}),
-    #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
-    #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "GDP"}}),
-    #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"GDP", Currency.Type}}),
-    #"Replaced Errors" = Table.ReplaceErrorValues(#"Changed Type2", {{"GDP", 0}}),
-    #"Merged Queries" = Table.NestedJoin(#"Replaced Errors", {"State/union territory", "Year"}, #"GDP Growth Rate (2002-2014)", {"State/union territory", "Year"}, "GDP Growth Rate (2002-2014)", JoinKind.LeftOuter),
-    #"Expanded GDP Growth Rate (2002-2014)" = Table.ExpandTableColumn(#"Merged Queries", "GDP Growth Rate (2002-2014)", {"State/union territory", "Year", "Growth Rate(%)"}, {"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year", "GDP Growth Rate (2002-2014).Growth Rate(%)"}),
-    #"Removed Columns" = Table.RemoveColumns(#"Expanded GDP Growth Rate (2002-2014)",{"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year"}),
-    #"Renamed Columns2" = Table.RenameColumns(#"Removed Columns",{{"GDP Growth Rate (2002-2014).Growth Rate(%)", "Growth Rate(%)"}, {"State/union territory", "State"}}),
-    #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns2",null,0,Replacer.ReplaceValue,{"Growth Rate(%)"})
-in
-    #"Replaced Value"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GDP20012010_Table,{{"State/union territory", type text}, {"2001", type any}, {"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}}),
+2. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Changed Type", {"State/union territory"}, "Attribute", "Value"),
+3. #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP (2011-2014)"}),
+4. #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
+5. #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
+6. #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "GDP"}}),
+7. #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"GDP", Currency.Type}}),
+8. #"Replaced Errors" = Table.ReplaceErrorValues(#"Changed Type2", {{"GDP", 0}}),
+9. #"Merged Queries" = Table.NestedJoin(#"Replaced Errors", {"State/union territory", "Year"}, #"GDP Growth Rate (2002-2014)", {"State/union territory", "Year"}, "GDP Growth Rate (2002-2014)", JoinKind.LeftOuter),
+10. #"Expanded GDP Growth Rate (2002-2014)" = Table.ExpandTableColumn(#"Merged Queries", "GDP Growth Rate (2002-2014)", {"State/union territory", "Year", "Growth Rate(%)"}, {"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year", "GDP Growth Rate (2002-2014).Growth Rate(%)"}),
+11. #"Removed Columns" = Table.RemoveColumns(#"Expanded GDP Growth Rate (2002-2014)",{"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year"}),
+12. #"Renamed Columns2" = Table.RenameColumns(#"Removed Columns",{{"GDP Growth Rate (2002-2014).Growth Rate(%)", "Growth Rate(%)"}, {"State/union territory", "State"}}),
+13. #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns2",null,0,Replacer.ReplaceValue,{"Growth Rate(%)"})
+</t>
         </is>
       </c>
     </row>
@@ -621,16 +619,15 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GrowthRate20022010_Table,{{"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}, {"State/union territory", type text}}),
-    #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2002"}),
-    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors", {"State/union territory"}, "Attribute", "Value"),
-    #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP Growth Rate (2011-2014)"}),
-    #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
-    #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "Growth Rate(%)"}}),
-    #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"Growth Rate(%)", Percentage.Type}})
-in
-    #"Changed Type2"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GrowthRate20022010_Table,{{"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}, {"State/union territory", type text}}),
+2. #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2002"}),
+3. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors", {"State/union territory"}, "Attribute", "Value"),
+4. #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP Growth Rate (2011-2014)"}),
+5. #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
+6. #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
+7. #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "Growth Rate(%)"}}),
+8. #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"Growth Rate(%)", Percentage.Type}})
+</t>
         </is>
       </c>
     </row>
@@ -660,12 +657,11 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GrowthRate20112014_Table,{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}}),
-    #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2011"}),
-    #"Removed Errors1" = Table.RemoveRowsWithErrors(#"Removed Errors", {"2013"}),
-    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors1", {"State/union territory"}, "Attribute", "Value")
-in
-    #"Unpivoted Other Columns"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GrowthRate20112014_Table,{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}}),
+2. #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2011"}),
+3. #"Removed Errors1" = Table.RemoveRowsWithErrors(#"Removed Errors", {"2013"}),
+4. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors1", {"State/union territory"}, "Attribute", "Value")
+</t>
         </is>
       </c>
     </row>
@@ -695,13 +691,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GDP20112014_Sheet,{{"Column1", type text}, {"Column2", type any}, {"Column3", type any}, {"Column4", type any}, {"Column5", type any}, {"Column6", type any}}),
-    #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}, {"Column6", type any}}),
-    #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"Column6"}),
-    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Columns", {"State/union territory"}, "Attribute", "Value")
-in
-    #"Unpivoted Other Columns"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GDP20112014_Sheet,{{"Column1", type text}, {"Column2", type any}, {"Column3", type any}, {"Column4", type any}, {"Column5", type any}, {"Column6", type any}}),
+2. #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
+3. #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}, {"Column6", type any}}),
+4. #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"Column6"}),
+5. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Columns", {"State/union territory"}, "Attribute", "Value")
+</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment8.xlsx
+++ b/EXCEL Output/Assignment8.xlsx
@@ -133,15 +133,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:F6" headerRowCount="1">
-  <autoFilter ref="A1:F6"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:G6" headerRowCount="1">
+  <autoFilter ref="A1:G6"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-    <tableColumn id="5" name="Table Query"/>
-    <tableColumn id="6" name="Modification"/>
+    <tableColumn id="5" name="Original Table Name"/>
+    <tableColumn id="6" name="Table Query"/>
+    <tableColumn id="7" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +476,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="80" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,10 +506,15 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>Original Table Name</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>Table Query</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Modification</t>
         </is>
@@ -534,10 +541,15 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
+          <t>Indian Administrative Region</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(Source,{{"Column1", type text}, {"Column2", type text}}),
 2. #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
@@ -571,10 +583,15 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
+          <t>GDP20012010_Table</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GDP20012010_Table,{{"State/union territory", type text}, {"2001", type any}, {"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}}),
 2. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Changed Type", {"State/union territory"}, "Attribute", "Value"),
@@ -614,10 +631,15 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>GrowthRate20022010_Table</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GrowthRate20022010_Table,{{"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}, {"State/union territory", type text}}),
 2. #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2002"}),
@@ -652,10 +674,15 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>GrowthRate20112014_Table</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GrowthRate20112014_Table,{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}}),
 2. #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2011"}),
@@ -686,10 +713,15 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>GDP20112014_Sheet</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GDP20112014_Sheet,{{"Column1", type text}, {"Column2", type any}, {"Column3", type any}, {"Column4", type any}, {"Column5", type any}, {"Column6", type any}}),
 2. #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),

--- a/EXCEL Output/Assignment8.xlsx
+++ b/EXCEL Output/Assignment8.xlsx
@@ -133,9 +133,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:H6" headerRowCount="1">
+  <autoFilter ref="A1:H6"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
@@ -143,6 +143,7 @@
     <tableColumn id="5" name="Original Table Name"/>
     <tableColumn id="6" name="Table Query"/>
     <tableColumn id="7" name="Modification"/>
+    <tableColumn id="8" name="Modification Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +482,7 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -519,6 +521,11 @@
           <t>Modification</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Modification Description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -536,7 +543,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Indian Administrative Region.csv"),[Delimiter="	"</t>
+          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Indian Administrative Region.csv"</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -559,6 +566,11 @@
 6. #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value"," lakh crore","",Replacer.ReplaceText,{"Nominal GDP"}),
 7. #"Changed Type2" = Table.TransformColumnTypes(#"Replaced Value1",{{"Nominal GDP", Currency.Type}})
 </t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>This set of instructions is manipulating data in a table. The instructions start by changing the type of two columns from numerical values to text. Then the headers of the table are promoted to the top row, followed by the type of two columns being changed again. After this, the columns are renamed. Two attempts are made to replace values in one column. Finally, the type of the column is changed to a currency type.</t>
         </is>
       </c>
     </row>
@@ -609,6 +621,11 @@
 </t>
         </is>
       </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>This code is transforming a table of data about Indian states' gross domestic product (GDP) in 2001-2010 into another table with columns for each year from 2001-2014 and the growth rate percentage for each state. The code renames and changes the type of the columns, un-pivots the data, adds GDP growth rate data, and replaces empty values with zeros. The final table includes columns for state, year, GDP, and growth rate percentage.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -652,6 +669,11 @@
 </t>
         </is>
       </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>This code is calculating the growth rate of a region from 2002-2010. First, it sets the format of the table to allow for data entry. Then, it removes any errors in the data and unpivots other columns. It appends the query together and renames the columns for clarity. It also changes the format of the table to be a date and changes the value column to be a percentage. Finally, it gives the result in the final table format.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -689,6 +711,11 @@
 3. #"Removed Errors1" = Table.RemoveRowsWithErrors(#"Removed Errors", {"2013"}),
 4. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors1", {"State/union territory"}, "Attribute", "Value")
 </t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>This is a set of instructions for processing a table to find the growth rate of various states or union territories between 2011 and 2014. The table is first identified as GrowthRate20112014_Table, and the format of the data is changed so that each of the columns has its own data type. Then, any entries that have errors in either the 2011 or 2013 columns are removed. Finally, the data is unpivoted, which changes the table from having multiple columns for each year to just one, with different rows for each of the different years.</t>
         </is>
       </c>
     </row>
@@ -729,6 +756,11 @@
 4. #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"Column6"}),
 5. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Columns", {"State/union territory"}, "Attribute", "Value")
 </t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>This code is attempting to manipulate a table of data related to Gross Domestic Product (GDP) from 2011-2014 from a sheet source. It is first changing the types of certain columns from text to any, which means that the data can include content that is not plain text, like numbers or dates. Then, it promotes a header, which means it makes it the top row of the table and removes any additional top rows. It then changes the type of the first column again to text, removes another column, and unpivots any columns that have extra information. The final result is the table in its "Unpivoted Other Columns" form.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment8.xlsx
+++ b/EXCEL Output/Assignment8.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>This set of instructions is manipulating data in a table. The instructions start by changing the type of two columns from numerical values to text. Then the headers of the table are promoted to the top row, followed by the type of two columns being changed again. After this, the columns are renamed. Two attempts are made to replace values in one column. Finally, the type of the column is changed to a currency type.</t>
+          <t>This is a series of commands that is manipulating a table. The commands are changing the type (ie text, currency, etc) of certain columns, promoting certain headers, renaming certain columns, and replacing values with something else. The end result is the table with the specified columns changed type (ie text, currency, etc).</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>This code is transforming a table of data about Indian states' gross domestic product (GDP) in 2001-2010 into another table with columns for each year from 2001-2014 and the growth rate percentage for each state. The code renames and changes the type of the columns, un-pivots the data, adds GDP growth rate data, and replaces empty values with zeros. The final table includes columns for state, year, GDP, and growth rate percentage.</t>
+          <t>This code is used to calculate the GDP of various states/union territories in India from 2001 to 2010 and also calculate the Growth Rate of GDP from 2002 to 2014. This code starts by sourcing the data and transforming the column types of the original data table. It then unpivots other columns and combines the queries. After renaming and changing the column types, it replaces any errors and merges the queries. Afterwards, it expands the table by removing columns, renaming columns, and replacing any null values with zeros. The resulting table will contain the GDP and growth rate values for each state or union territory from 2001 to 2014.</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>This code is calculating the growth rate of a region from 2002-2010. First, it sets the format of the table to allow for data entry. Then, it removes any errors in the data and unpivots other columns. It appends the query together and renames the columns for clarity. It also changes the format of the table to be a date and changes the value column to be a percentage. Finally, it gives the result in the final table format.</t>
+          <t>This code is organizing and cleaning up a table of growth rate data from 2002 to 2010. The table includes the growth rate of a certain item in each state/union territory and the year. The code is transforming the data by changing the types of some variables, removing any errors, unpivoting other columns, renaming columns, and changing types for some of the columns again so that all of the relevant information is organized and in numerical format. It also combines the growth rate from 2002 to 2010 with a separate table of GDP growth rate from 2011 to 2014.</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>This is a set of instructions for processing a table to find the growth rate of various states or union territories between 2011 and 2014. The table is first identified as GrowthRate20112014_Table, and the format of the data is changed so that each of the columns has its own data type. Then, any entries that have errors in either the 2011 or 2013 columns are removed. Finally, the data is unpivoted, which changes the table from having multiple columns for each year to just one, with different rows for each of the different years.</t>
+          <t>This is a set of instructions to take data (GrowthRate20112014_Table) and manipulate it to make it easier to analyze. The first step is to change the type of the data (State/union territory, 2011, 2012, 2013, 2014) in the table to a text type. The next step removes any rows with errors in the 2011 and 2013 columns respectively. Lastly, the data is unpivoted--meaning the State/union territory titles, 2011, 2012, 2013, and 2014 information from the table is changed into a single column (Attribute) and their values are presented in another column (Value). The final result is a table that has been modified to make it easier for analysis.</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>This code is attempting to manipulate a table of data related to Gross Domestic Product (GDP) from 2011-2014 from a sheet source. It is first changing the types of certain columns from text to any, which means that the data can include content that is not plain text, like numbers or dates. Then, it promotes a header, which means it makes it the top row of the table and removes any additional top rows. It then changes the type of the first column again to text, removes another column, and unpivots any columns that have extra information. The final result is the table in its "Unpivoted Other Columns" form.</t>
+          <t>This code is part of a program designed to rearrange and organize data from a sheet about Gross Domestic Product (GDP) for each state. The sheet contains six columns with numbers from 2011 to 2014 and a column for the state. The code changes the types of the different columns, promotes the column headers, changes their types again, removes one column, and then unpivots the columns (to change it from a wide dataset to a long dataset). At the end, the result is a long dataset of the states, years and their corresponding GDP.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment8.xlsx
+++ b/EXCEL Output/Assignment8.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>This is a series of commands that is manipulating a table. The commands are changing the type (ie text, currency, etc) of certain columns, promoting certain headers, renaming certain columns, and replacing values with something else. The end result is the table with the specified columns changed type (ie text, currency, etc).</t>
+          <t>This is a sequence of commands in Microsoft Excel that takes a table with two columns, "Column1" and "Column2", changes the entries in "Column2" to display different text, promotes the headers of each column, changes the names of two columns to "Zone" and "Nominal GDP", replaces the "?" and "lakh crore" symbols from the Nominal GDP column and then changes the data type of this column to show that it measures currency. The final result of these commands is the modified version of the original table.</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>This code is used to calculate the GDP of various states/union territories in India from 2001 to 2010 and also calculate the Growth Rate of GDP from 2002 to 2014. This code starts by sourcing the data and transforming the column types of the original data table. It then unpivots other columns and combines the queries. After renaming and changing the column types, it replaces any errors and merges the queries. Afterwards, it expands the table by removing columns, renaming columns, and replacing any null values with zeros. The resulting table will contain the GDP and growth rate values for each state or union territory from 2001 to 2014.</t>
+          <t>This code sets up a table showing the Gross Domestic Product (GDP) of each Indian state or union territory, in addition to the year-over-year growth rate, between 2001 and 2010. It starts by creating a table with the GDP and State data, then changes the types of certain columns to any value so they can be organized. It goes on to unpivot other columns to separate out state and GDP data, combines extra queries, and renames certain columns to make the table easier to understand. Finally it transforms the types of certain columns, replaces errors, and combines and replaces any null values. At the end, the table that is created shows the state, GDP, and year-over-year growth rate for each of the Indian states or union territories.</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>This code is organizing and cleaning up a table of growth rate data from 2002 to 2010. The table includes the growth rate of a certain item in each state/union territory and the year. The code is transforming the data by changing the types of some variables, removing any errors, unpivoting other columns, renaming columns, and changing types for some of the columns again so that all of the relevant information is organized and in numerical format. It also combines the growth rate from 2002 to 2010 with a separate table of GDP growth rate from 2011 to 2014.</t>
+          <t>This code looks at a table of growth rate data from 2002 to 2010 for different states and union territories. It changes the data types for each year and for the state/union territories, removes any rows that contain errors in the 2002 column, unpivots other columns, combines two queries, renames certain columns, and changes the data types for the year and growth rate. It then returns the changed table.</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>This is a set of instructions to take data (GrowthRate20112014_Table) and manipulate it to make it easier to analyze. The first step is to change the type of the data (State/union territory, 2011, 2012, 2013, 2014) in the table to a text type. The next step removes any rows with errors in the 2011 and 2013 columns respectively. Lastly, the data is unpivoted--meaning the State/union territory titles, 2011, 2012, 2013, and 2014 information from the table is changed into a single column (Attribute) and their values are presented in another column (Value). The final result is a table that has been modified to make it easier for analysis.</t>
+          <t>This sentence is explaining a process that transforms a table. The process first changes the types (data types) of each column in the table; this is permanent and means the columns will be changed permanently. Then, the process removes any rows or columns with errors or invalid entries. After that, it 'unpivots' any other columns, which means their contents are reorganized.</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>This code is part of a program designed to rearrange and organize data from a sheet about Gross Domestic Product (GDP) for each state. The sheet contains six columns with numbers from 2011 to 2014 and a column for the state. The code changes the types of the different columns, promotes the column headers, changes their types again, removes one column, and then unpivots the columns (to change it from a wide dataset to a long dataset). At the end, the result is a long dataset of the states, years and their corresponding GDP.</t>
+          <t>This code takes the data from the source called "GDP20112014_Sheet" and changes its types (such as text and any) for each of the columns. It also promotes the headers of the data, making them more readable. The code then removes one of the columns and unpivots the other columns, putting each item into a different row. At the end, the code results in the data stored in the "Unpivoted Other Columns".</t>
         </is>
       </c>
     </row>
